--- a/client/public/templates/servicos.xlsx
+++ b/client/public/templates/servicos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ScopeSystem\client\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D485440F-F3C7-4356-8824-1077F495B9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429E36AF-04B5-4D2B-BECF-C6AA15FCC0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{295BCE0E-7CE5-488C-86BB-3A01F9C37A3F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{295BCE0E-7CE5-488C-86BB-3A01F9C37A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Placa</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>DataValidacao</t>
+  </si>
+  <si>
+    <t>BOT</t>
   </si>
 </sst>
 </file>
@@ -213,7 +216,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
@@ -223,6 +226,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="40% - Ênfase1" xfId="2" builtinId="31"/>
@@ -576,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6C1C4B-5DDD-4FDE-9412-4F170193696F}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -700,6 +704,15 @@
       <c r="N2" t="s">
         <v>19</v>
       </c>
+      <c r="O2" s="5">
+        <v>65959557955959</v>
+      </c>
+      <c r="P2">
+        <v>688686</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:C2">
